--- a/InputData/elec/PTCF/Peak Time Capacity Factors.xlsx
+++ b/InputData/elec/PTCF/Peak Time Capacity Factors.xlsx
@@ -5,11 +5,11 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbie\Dropbox (Energy InNovation)\My Documents\Policy Solutions Project\India\India EPS\InputData UPDATE FOR INDIA\elec\PTCF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-india\InputData\elec\PTCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13035"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="12" r:id="rId1"/>
@@ -27,12 +27,18 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>PTCF Peak Time Capacity Factors</t>
   </si>
@@ -56,9 +62,6 @@
   </si>
   <si>
     <t>solar pv</t>
-  </si>
-  <si>
-    <t>Peak Time Capacity Factors</t>
   </si>
   <si>
     <t>hard coal</t>
@@ -263,22 +266,55 @@
     <t>Central Electricity Authority</t>
   </si>
   <si>
-    <t>Peak in India is in the late evening, so solar has a value of zero</t>
-  </si>
-  <si>
     <t>All Except Wind</t>
   </si>
   <si>
-    <t>We assume biomass, solar thermal, and geothermal have the same capacity value as lignite.</t>
-  </si>
-  <si>
-    <t>For biomass, this is because the fuel is often lower heat content and wetter than for hard coal,</t>
-  </si>
-  <si>
-    <t>so is more comparable to lignite. We simply use these values for geothermal and solar thermal</t>
-  </si>
-  <si>
-    <t>as well, which are for the most part dispatchable (assuming storage for solar thermal).</t>
+    <t>Peak in India is in the late evening, so solar has a value of zero.</t>
+  </si>
+  <si>
+    <t>crude oil</t>
+  </si>
+  <si>
+    <t>heavy or residual fuel oil</t>
+  </si>
+  <si>
+    <t>municipal solid waste</t>
+  </si>
+  <si>
+    <t>Peak Time Capacity Factors (dimensionless)</t>
+  </si>
+  <si>
+    <t>Capacity Factors for Biomass</t>
+  </si>
+  <si>
+    <t>Central Electricity Authority/Ministry of Power</t>
+  </si>
+  <si>
+    <t>Draft Report on Optimal Generation Capacity Mix for 2029-30</t>
+  </si>
+  <si>
+    <t>http://cea.nic.in/reports/others/planning/irp/Optimal_generation_mix_report.pdf</t>
+  </si>
+  <si>
+    <t>Table 6.7.A</t>
+  </si>
+  <si>
+    <t>Annexure - I/2, Cost Parameters, Other assumptions, page 39</t>
+  </si>
+  <si>
+    <t>We assume solar thermal and geothermal, which are for the most part dispatchable</t>
+  </si>
+  <si>
+    <t>(assuming storage for solar thermal) - have the same value as lignite.</t>
+  </si>
+  <si>
+    <t>We assume a lower value for biomass and municipal solid waste due to uncertainty</t>
+  </si>
+  <si>
+    <t>in feedstock availability, based on CEA's optimal energy mix report for 2030.</t>
+  </si>
+  <si>
+    <t>We assume crude oil and heavy residual fuel to have the same value as diesel.</t>
   </si>
 </sst>
 </file>
@@ -287,10 +323,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="###0;###0"/>
-    <numFmt numFmtId="167" formatCode="#,##0;#,##0"/>
+    <numFmt numFmtId="165" formatCode="###0;###0"/>
+    <numFmt numFmtId="166" formatCode="#,##0;#,##0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,6 +416,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -623,7 +667,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -636,8 +680,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFont="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -645,9 +690,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -667,49 +709,49 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -724,16 +766,21 @@
     <xf numFmtId="10" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Body: normal cell" xfId="5"/>
     <cellStyle name="Font: Calibri, 9pt regular" xfId="2"/>
     <cellStyle name="Header: bottom row" xfId="4"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 6" xfId="1"/>
     <cellStyle name="Table title" xfId="3"/>
@@ -1089,17 +1136,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="2" width="73.85546875" customWidth="1"/>
-    <col min="5" max="5" width="49.5703125" customWidth="1"/>
+    <col min="5" max="5" width="58.7109375" customWidth="1"/>
     <col min="8" max="8" width="47.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1116,42 +1161,65 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>2018</v>
       </c>
+      <c r="E5" s="3">
+        <v>2019</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>37</v>
+      <c r="B7" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1165,13 +1233,13 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="33" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
@@ -1180,12 +1248,12 @@
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1193,33 +1261,41 @@
       <c r="A20" s="1"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B14" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1228,7 +1304,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1240,134 +1316,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="B2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="11" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="B3" s="12">
+        <v>14497</v>
+      </c>
+      <c r="C3" s="27">
+        <v>0.255</v>
+      </c>
+      <c r="D3" s="13">
+        <v>3697</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="13">
-        <v>14497</v>
-      </c>
-      <c r="C3" s="28">
-        <v>0.255</v>
-      </c>
-      <c r="D3" s="14">
-        <v>3697</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="B4" s="15">
+        <v>35071</v>
+      </c>
+      <c r="C4" s="28">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="D4" s="16">
+        <v>10346</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="16">
-        <v>35071</v>
-      </c>
-      <c r="C4" s="29">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="D4" s="17">
-        <v>10346</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="B5" s="18">
+        <v>13593</v>
+      </c>
+      <c r="C5" s="29">
+        <v>0.24</v>
+      </c>
+      <c r="D5" s="19">
+        <v>3262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="19">
-        <v>13593</v>
-      </c>
-      <c r="C5" s="30">
+      <c r="B6" s="21">
+        <v>5961</v>
+      </c>
+      <c r="C6" s="30">
+        <v>0.23</v>
+      </c>
+      <c r="D6" s="22">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="18">
+        <v>5050</v>
+      </c>
+      <c r="C7" s="29">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="D7" s="19">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="21">
+        <v>14152</v>
+      </c>
+      <c r="C8" s="30">
+        <v>0.23</v>
+      </c>
+      <c r="D8" s="22">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="18">
+        <v>14464</v>
+      </c>
+      <c r="C9" s="29">
         <v>0.24</v>
       </c>
-      <c r="D5" s="20">
-        <v>3262</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="22">
-        <v>5961</v>
-      </c>
-      <c r="C6" s="31">
-        <v>0.23</v>
-      </c>
-      <c r="D6" s="23">
-        <v>1371</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="19">
-        <v>5050</v>
-      </c>
-      <c r="C7" s="30">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="D7" s="20">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="22">
-        <v>14152</v>
-      </c>
-      <c r="C8" s="31">
-        <v>0.23</v>
-      </c>
-      <c r="D8" s="23">
-        <v>3255</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="D9" s="19">
+        <v>3471</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="19">
-        <v>14464</v>
-      </c>
-      <c r="C9" s="30">
-        <v>0.24</v>
-      </c>
-      <c r="D9" s="20">
-        <v>3471</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="25">
+      <c r="B10" s="24">
         <v>102788</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="27">
+      <c r="C10" s="25"/>
+      <c r="D10" s="26">
         <v>26438</v>
       </c>
     </row>
@@ -1381,10 +1457,10 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1393,14 +1469,14 @@
     <col min="2" max="2" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="5" t="s">
-        <v>8</v>
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B1" s="35" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="4">
         <v>0.88</v>
@@ -1408,7 +1484,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="4">
         <v>0.9</v>
@@ -1416,7 +1492,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="4">
         <v>0.68</v>
@@ -1424,7 +1500,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="4">
         <v>0.875</v>
@@ -1432,7 +1508,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="4">
         <f>SUMPRODUCT(Wind!C3:C9,Wind!B3:B9)/Wind!B10</f>
@@ -1444,39 +1520,38 @@
         <v>7</v>
       </c>
       <c r="B7" s="4">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="33">
+        <v>13</v>
+      </c>
+      <c r="B8" s="31">
         <f>B13</f>
         <v>0.8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="32">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B10" s="31">
         <f>B13</f>
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="33">
-        <f>B13</f>
-        <v>0.8</v>
-      </c>
-    </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="4">
         <v>1</v>
@@ -1484,7 +1559,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="4">
         <v>1</v>
@@ -1492,7 +1567,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="4">
         <v>0.8</v>
@@ -1500,11 +1575,38 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="34">
+        <v>18</v>
+      </c>
+      <c r="B14" s="32">
         <f>B6</f>
         <v>0.25720512122037592</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="4">
+        <f>B11</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="4">
+        <f>B11</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="4">
+        <f>B9</f>
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/PTCF/Peak Time Capacity Factors.xlsx
+++ b/InputData/elec/PTCF/Peak Time Capacity Factors.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="12" r:id="rId1"/>
@@ -1138,25 +1138,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" customWidth="1"/>
-    <col min="2" max="2" width="73.85546875" customWidth="1"/>
-    <col min="5" max="5" width="58.7109375" customWidth="1"/>
-    <col min="8" max="8" width="47.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.265625" customWidth="1"/>
+    <col min="2" max="2" width="73.86328125" customWidth="1"/>
+    <col min="5" max="5" width="58.73046875" customWidth="1"/>
+    <col min="8" max="8" width="47.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>38</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="3">
         <v>2018</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>37</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="34" t="s">
         <v>36</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>35</v>
       </c>
@@ -1207,85 +1207,85 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B10" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B12" s="3">
         <v>2017</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B14" s="33" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>55</v>
       </c>
@@ -1307,15 +1307,15 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="80" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
@@ -1323,7 +1323,7 @@
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
         <v>20</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="11" t="s">
         <v>24</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>3697</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="14" t="s">
         <v>25</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>10346</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="17" t="s">
         <v>26</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>3262</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="20" t="s">
         <v>27</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="17" t="s">
         <v>28</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="20" t="s">
         <v>29</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>3255</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="17" t="s">
         <v>30</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>3471</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="23" t="s">
         <v>31</v>
       </c>
@@ -1459,22 +1459,22 @@
   </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.265625" customWidth="1"/>
+    <col min="2" max="2" width="27.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B1" s="35" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1515,15 +1515,15 @@
         <v>0.25720512122037592</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>0.25720512122037592</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>43</v>
       </c>

--- a/InputData/elec/PTCF/Peak Time Capacity Factors.xlsx
+++ b/InputData/elec/PTCF/Peak Time Capacity Factors.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-india\InputData\elec\PTCF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\India\India_Model\InputData\elec\PTCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEDAF5B-A710-4F48-AA4D-EC5963339AD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="12765" yWindow="1245" windowWidth="15615" windowHeight="13545" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="12" r:id="rId1"/>
@@ -22,7 +23,7 @@
   <definedNames>
     <definedName name="LocalAreaOptions">[1]Lists!$B$11:$B$21</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +31,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
   <si>
     <t>PTCF Peak Time Capacity Factors</t>
   </si>
@@ -281,9 +284,6 @@
     <t>municipal solid waste</t>
   </si>
   <si>
-    <t>Peak Time Capacity Factors (dimensionless)</t>
-  </si>
-  <si>
     <t>Capacity Factors for Biomass</t>
   </si>
   <si>
@@ -315,18 +315,27 @@
   </si>
   <si>
     <t>We assume crude oil and heavy residual fuel to have the same value as diesel.</t>
+  </si>
+  <si>
+    <t>Unit: dimensionless (peak time capacity factors)</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>Winter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="###0;###0"/>
     <numFmt numFmtId="166" formatCode="#,##0;#,##0"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -424,8 +433,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -452,6 +469,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD2DFED"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -682,7 +705,7 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -775,15 +798,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Body: normal cell" xfId="5"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="2"/>
-    <cellStyle name="Header: bottom row" xfId="4"/>
+    <cellStyle name="Body: normal cell" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Header: bottom row" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 6" xfId="1"/>
-    <cellStyle name="Table title" xfId="3"/>
+    <cellStyle name="Normal 6" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Table title" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1135,28 +1162,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.265625" customWidth="1"/>
-    <col min="2" max="2" width="73.86328125" customWidth="1"/>
-    <col min="5" max="5" width="58.73046875" customWidth="1"/>
-    <col min="8" max="8" width="47.59765625" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="73.85546875" customWidth="1"/>
+    <col min="5" max="5" width="58.7109375" customWidth="1"/>
+    <col min="8" max="8" width="47.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1164,18 +1193,18 @@
         <v>39</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>2018</v>
       </c>
@@ -1183,139 +1212,140 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="34" t="s">
         <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>35</v>
       </c>
       <c r="E8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>2017</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="33" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1"/>
+    <hyperlink ref="B14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{6D3E463F-2F80-4426-82BF-B07B00B7DA28}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="80" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.73046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
@@ -1323,7 +1353,7 @@
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>20</v>
       </c>
@@ -1337,7 +1367,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>24</v>
       </c>
@@ -1351,7 +1381,7 @@
         <v>3697</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>25</v>
       </c>
@@ -1365,7 +1395,7 @@
         <v>10346</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>26</v>
       </c>
@@ -1379,7 +1409,7 @@
         <v>3262</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>27</v>
       </c>
@@ -1393,7 +1423,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>28</v>
       </c>
@@ -1407,7 +1437,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>29</v>
       </c>
@@ -1421,7 +1451,7 @@
         <v>3255</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>30</v>
       </c>
@@ -1435,7 +1465,7 @@
         <v>3471</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>31</v>
       </c>
@@ -1453,60 +1483,82 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.265625" customWidth="1"/>
-    <col min="2" max="2" width="27.3984375" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
+        <v>55</v>
+      </c>
       <c r="B1" s="35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="4">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C2" s="37">
+        <f>B2</f>
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="4">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C3" s="37">
+        <f t="shared" ref="C3:C17" si="0">B3</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="4">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C4" s="37">
+        <f t="shared" si="0"/>
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="4">
         <v>0.875</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C5" s="37">
+        <f t="shared" si="0"/>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1514,16 +1566,24 @@
         <f>SUMPRODUCT(Wind!C3:C9,Wind!B3:B9)/Wind!B10</f>
         <v>0.25720512122037592</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C6" s="37">
+        <f t="shared" si="0"/>
+        <v>0.25720512122037592</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C7" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1531,16 +1591,24 @@
         <f>B13</f>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C8" s="37">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="32">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C9" s="37">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1548,32 +1616,48 @@
         <f>B13</f>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C10" s="37">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C11" s="37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C12" s="37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="4">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C13" s="37">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1581,8 +1665,12 @@
         <f>B6</f>
         <v>0.25720512122037592</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C14" s="37">
+        <f t="shared" si="0"/>
+        <v>0.25720512122037592</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -1590,8 +1678,12 @@
         <f>B11</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C15" s="37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -1599,13 +1691,21 @@
         <f>B11</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C16" s="37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>43</v>
       </c>
       <c r="B17" s="4">
         <f>B9</f>
+        <v>0.3</v>
+      </c>
+      <c r="C17" s="37">
+        <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
     </row>

--- a/InputData/elec/PTCF/Peak Time Capacity Factors.xlsx
+++ b/InputData/elec/PTCF/Peak Time Capacity Factors.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
-  <workbookPr hidePivotFieldList="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\India\India_Model\InputData\elec\PTCF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-india\InputData\elec\PTCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEDAF5B-A710-4F48-AA4D-EC5963339AD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12765" yWindow="1245" windowWidth="15615" windowHeight="13545" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12765" yWindow="1245" windowWidth="15615" windowHeight="13545"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="12" r:id="rId1"/>
@@ -23,7 +22,7 @@
   <definedNames>
     <definedName name="LocalAreaOptions">[1]Lists!$B$11:$B$21</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t>PTCF Peak Time Capacity Factors</t>
   </si>
@@ -325,17 +324,20 @@
   <si>
     <t>Winter</t>
   </si>
+  <si>
+    <t>In the India EPS, the geothermal plant type is repurposed as pumped hydro capacity.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="###0;###0"/>
     <numFmt numFmtId="166" formatCode="#,##0;#,##0"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -437,6 +439,13 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -705,7 +714,7 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -802,15 +811,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Body: normal cell" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Header: bottom row" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Body: normal cell" xfId="5"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="2"/>
+    <cellStyle name="Header: bottom row" xfId="4"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 6" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Table title" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 6" xfId="1"/>
+    <cellStyle name="Table title" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1162,30 +1174,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" customWidth="1"/>
-    <col min="2" max="2" width="73.85546875" customWidth="1"/>
-    <col min="5" max="5" width="58.7109375" customWidth="1"/>
-    <col min="8" max="8" width="47.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.265625" customWidth="1"/>
+    <col min="2" max="2" width="73.86328125" customWidth="1"/>
+    <col min="5" max="5" width="58.73046875" customWidth="1"/>
+    <col min="8" max="8" width="47.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1196,7 +1208,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>38</v>
       </c>
@@ -1204,7 +1216,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="3">
         <v>2018</v>
       </c>
@@ -1212,7 +1224,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>37</v>
       </c>
@@ -1220,7 +1232,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="34" t="s">
         <v>36</v>
       </c>
@@ -1228,7 +1240,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>35</v>
       </c>
@@ -1236,93 +1248,98 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B10" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B12" s="3">
         <v>2017</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B14" s="33" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>54</v>
       </c>
     </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A29" s="38" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B7" r:id="rId2" xr:uid="{6D3E463F-2F80-4426-82BF-B07B00B7DA28}"/>
+    <hyperlink ref="B14" r:id="rId1"/>
+    <hyperlink ref="B7" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1330,22 +1347,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="80" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
@@ -1353,7 +1370,7 @@
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
         <v>20</v>
       </c>
@@ -1367,7 +1384,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="11" t="s">
         <v>24</v>
       </c>
@@ -1381,7 +1398,7 @@
         <v>3697</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="14" t="s">
         <v>25</v>
       </c>
@@ -1395,7 +1412,7 @@
         <v>10346</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="17" t="s">
         <v>26</v>
       </c>
@@ -1409,7 +1426,7 @@
         <v>3262</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="20" t="s">
         <v>27</v>
       </c>
@@ -1423,7 +1440,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="17" t="s">
         <v>28</v>
       </c>
@@ -1437,7 +1454,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="20" t="s">
         <v>29</v>
       </c>
@@ -1451,7 +1468,7 @@
         <v>3255</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="17" t="s">
         <v>30</v>
       </c>
@@ -1465,7 +1482,7 @@
         <v>3471</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="23" t="s">
         <v>31</v>
       </c>
@@ -1483,23 +1500,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.265625" customWidth="1"/>
+    <col min="2" max="2" width="27.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="36" t="s">
         <v>55</v>
       </c>
@@ -1510,7 +1527,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1522,7 +1539,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1534,7 +1551,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1546,7 +1563,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1558,7 +1575,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1571,7 +1588,7 @@
         <v>0.25720512122037592</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1583,7 +1600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1596,7 +1613,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1608,20 +1625,19 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="31">
-        <f>B13</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C10" s="37">
         <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1633,7 +1649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1645,7 +1661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1657,7 +1673,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1670,7 +1686,7 @@
         <v>0.25720512122037592</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -1683,7 +1699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -1696,7 +1712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>43</v>
       </c>
